--- a/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20_HFalse.xlsx
+++ b/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20_HFalse.xlsx
@@ -2279,7 +2279,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>11.6812608</v>
+        <v>11.6942496</v>
       </c>
       <c r="F2" t="n">
         <v>0.171072</v>
@@ -2311,7 +2311,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.1675776</v>
+        <v>2.1712096</v>
       </c>
       <c r="F3" t="n">
         <v>0.167832</v>
@@ -2375,7 +2375,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.414512</v>
+        <v>1.421352</v>
       </c>
       <c r="F5" t="n">
         <v>0.167144</v>
@@ -2407,7 +2407,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9662495999999999</v>
+        <v>0.9547008</v>
       </c>
       <c r="F6" t="n">
         <v>0.163984</v>
@@ -2439,7 +2439,7 @@
         <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2913696</v>
+        <v>0.2759328</v>
       </c>
       <c r="F7" t="n">
         <v>0.164352</v>
@@ -2471,7 +2471,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0899712</v>
+        <v>0.09377280000000002</v>
       </c>
       <c r="F8" t="n">
         <v>0.163648</v>
@@ -2503,7 +2503,7 @@
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8631088000000001</v>
+        <v>0.8618752000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.173128</v>
@@ -2529,13 +2529,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5152896</v>
+        <v>0.5204736</v>
       </c>
       <c r="F10" t="n">
         <v>0.1728</v>
@@ -2561,13 +2561,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1789</v>
+        <v>1803</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.756672</v>
+        <v>0.7561680000000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.171912</v>
@@ -2593,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2192928</v>
+        <v>1.2251888</v>
       </c>
       <c r="F12" t="n">
         <v>0.17304</v>
@@ -2625,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3253</v>
+        <v>3237</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>12.56188799999999</v>
+        <v>12.57585599999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.163856</v>
@@ -2657,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.8364672</v>
+        <v>4.844571200000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.1642</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
@@ -2721,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8702144000000001</v>
+        <v>0.8744224</v>
       </c>
       <c r="F16" t="n">
         <v>0.160304</v>
@@ -2753,13 +2753,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.409616</v>
+        <v>1.392768</v>
       </c>
       <c r="F17" t="n">
         <v>0.160776</v>
@@ -2785,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.456624</v>
+        <v>0.432432</v>
       </c>
       <c r="F18" t="n">
         <v>0.161136</v>
@@ -2817,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1245056</v>
+        <v>0.1297664</v>
       </c>
       <c r="F19" t="n">
         <v>0.16048</v>
@@ -2855,7 +2855,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>62.947472</v>
+        <v>62.875936</v>
       </c>
       <c r="F20" t="n">
         <v>0.02104</v>
@@ -2887,7 +2887,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.82484479999999</v>
+        <v>66.74890239999999</v>
       </c>
       <c r="F21" t="n">
         <v>0.022336</v>
@@ -2919,7 +2919,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71728640000001</v>
+        <v>82.6232832</v>
       </c>
       <c r="F22" t="n">
         <v>0.027648</v>
@@ -2951,7 +2951,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>254.5184096</v>
+        <v>254.2291648</v>
       </c>
       <c r="F23" t="n">
         <v>0.08507200000000001</v>
@@ -3064,34 +3064,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="D2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" t="n">
         <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J2" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K2" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L2" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3135,34 +3135,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D3" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="G3" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" t="n">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J3" t="n">
         <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="L3" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3206,34 +3206,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="D4" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J4" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K4" t="n">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="L4" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3277,34 +3277,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D5" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G5" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J5" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L5" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3348,34 +3348,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D6" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G6" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J6" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K6" t="n">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="L6" t="n">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3506,34 +3506,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75.5</v>
+        <v>74.5</v>
       </c>
       <c r="D2" t="n">
-        <v>18.875</v>
+        <v>18.75</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37</v>
+        <v>36.875</v>
       </c>
       <c r="G2" t="n">
-        <v>11.5</v>
+        <v>10.375</v>
       </c>
       <c r="H2" t="n">
         <v>3.625</v>
       </c>
       <c r="I2" t="n">
-        <v>52.375</v>
+        <v>52.75</v>
       </c>
       <c r="J2" t="n">
-        <v>37.125</v>
+        <v>37.625</v>
       </c>
       <c r="K2" t="n">
-        <v>112.5</v>
+        <v>112.375</v>
       </c>
       <c r="L2" t="n">
-        <v>25.75</v>
+        <v>26.125</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3577,34 +3577,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>113.25</v>
+        <v>112.875</v>
       </c>
       <c r="D3" t="n">
-        <v>28.125</v>
+        <v>27.1875</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>56.8125</v>
+        <v>54.1875</v>
       </c>
       <c r="G3" t="n">
-        <v>14.4375</v>
+        <v>16.3125</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5.8125</v>
       </c>
       <c r="I3" t="n">
-        <v>78.9375</v>
+        <v>78.375</v>
       </c>
       <c r="J3" t="n">
         <v>56.25</v>
       </c>
       <c r="K3" t="n">
-        <v>166.6875</v>
+        <v>169.5</v>
       </c>
       <c r="L3" t="n">
-        <v>39</v>
+        <v>40.125</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3648,34 +3648,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>130.15625</v>
+        <v>132.125</v>
       </c>
       <c r="D4" t="n">
-        <v>31.71875</v>
+        <v>33.6875</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>66.28125</v>
+        <v>64.75</v>
       </c>
       <c r="G4" t="n">
-        <v>20.78125</v>
+        <v>19.46875</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5.6875</v>
       </c>
       <c r="I4" t="n">
-        <v>91.65625</v>
+        <v>91.4375</v>
       </c>
       <c r="J4" t="n">
-        <v>65.1875</v>
+        <v>65.40625</v>
       </c>
       <c r="K4" t="n">
-        <v>200.8125</v>
+        <v>196.65625</v>
       </c>
       <c r="L4" t="n">
-        <v>44.84375</v>
+        <v>44.1875</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3719,34 +3719,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>137.109375</v>
+        <v>137.34375</v>
       </c>
       <c r="D5" t="n">
-        <v>36.796875</v>
+        <v>34.921875</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>71.484375</v>
+        <v>70.546875</v>
       </c>
       <c r="G5" t="n">
-        <v>22.03125</v>
+        <v>18.984375</v>
       </c>
       <c r="H5" t="n">
-        <v>5.625</v>
+        <v>7.734375</v>
       </c>
       <c r="I5" t="n">
-        <v>98.90625</v>
+        <v>98.671875</v>
       </c>
       <c r="J5" t="n">
-        <v>69.609375</v>
+        <v>70.78125</v>
       </c>
       <c r="K5" t="n">
-        <v>210.703125</v>
+        <v>210.46875</v>
       </c>
       <c r="L5" t="n">
-        <v>47.8125</v>
+        <v>50.390625</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3790,34 +3790,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>144.34375</v>
+        <v>145.5546875</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6328125</v>
+        <v>35.84375</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>72.4140625</v>
+        <v>74.3515625</v>
       </c>
       <c r="G6" t="n">
-        <v>23.0078125</v>
+        <v>21.5546875</v>
       </c>
       <c r="H6" t="n">
-        <v>6.0546875</v>
+        <v>7.0234375</v>
       </c>
       <c r="I6" t="n">
-        <v>101.234375</v>
+        <v>100.9921875</v>
       </c>
       <c r="J6" t="n">
-        <v>72.4140625</v>
+        <v>73.625</v>
       </c>
       <c r="K6" t="n">
-        <v>217.484375</v>
+        <v>218.2109375</v>
       </c>
       <c r="L6" t="n">
-        <v>51.1015625</v>
+        <v>48.1953125</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50260</v>
+        <v>50428</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>523565</v>
+        <v>522970</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523565</v>
+        <v>522970</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4936470</v>
+        <v>4930859.999999999</v>
       </c>
     </row>
   </sheetData>
